--- a/idf_miyata/CaseSRT/caseSRT_まとめ.xlsx
+++ b/idf_miyata/CaseSRT/caseSRT_まとめ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Programs/EnergyPlus_SHASEG1008/idf_miyata/CaseSRT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07C58EB-13B2-454E-A83D-90C88CD5394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDB5D87-DFD4-464F-994C-78C7111B35F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17980" yWindow="4380" windowWidth="36840" windowHeight="27260" xr2:uid="{FA7B084A-5CFE-3A4C-B26A-591F6CE60879}"/>
+    <workbookView xWindow="6140" yWindow="5860" windowWidth="36840" windowHeight="27260" xr2:uid="{FA7B084A-5CFE-3A4C-B26A-591F6CE60879}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,14 +91,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Case 1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Case 0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ZoneHVAC:IdealLoadsAirSystem,
     ,                  !- Maximum Heating Supply Air Temperature {C}
     ,                  !- Minimum Cooling Supply Air Temperature {C}
@@ -124,6 +116,20 @@
     LimitFlowRateAndCapacity,!- Cooling Limit
     0.276,                   !- Maximum Cooling Air Flow Rate {m3/s}
     6000,                    !- Maximum Total Cooling Capacity {W}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現状</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲンジョウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更後</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヘンコウゴ </t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -198,12 +204,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -297,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,27 +340,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -357,6 +348,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,57 +690,57 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="10" width="7.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
@@ -751,12 +766,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="159" customHeight="1">
+    <row r="4" spans="1:10" ht="53" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="18" t="s">
         <v>9</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="9">
         <v>176.801545348692</v>
@@ -776,19 +791,19 @@
       <c r="H4" s="9">
         <v>178.56284449136899</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="20">
         <v>-276.62243283746898</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="20">
         <v>-147.13815980523299</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="159" customHeight="1">
+    <row r="5" spans="1:10" ht="53" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="9">
         <v>174.50282675038301</v>
@@ -808,10 +823,10 @@
       <c r="H5" s="9">
         <v>133.49410076044799</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="20">
         <v>-100.021398967767</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="20">
         <v>-55.706597717405401</v>
       </c>
     </row>
@@ -824,8 +839,8 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3"/>
